--- a/Marketing.Mvc/DadosApp/DadosCompletos/06_ExtracaoCocaColaAjustado_LEBONTON.xlsx
+++ b/Marketing.Mvc/DadosApp/DadosCompletos/06_ExtracaoCocaColaAjustado_LEBONTON.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJETO\Marketing\Marketing.Mvc\DadosApp\DadosCompletos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BC22C3-9C9A-477B-A4BC-076639F30EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB8F253-7E08-456D-9AE5-8A9FEA03E86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="29">
   <si>
     <t>AnoMes</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>LEBONTON</t>
+  </si>
+  <si>
+    <t>5511977515914</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1806,7 +1811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45901</v>
       </c>
@@ -1845,6 +1850,9 @@
       </c>
       <c r="M33" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
